--- a/biology/Médecine/Réjean_Thomas/Réjean_Thomas.xlsx
+++ b/biology/Médecine/Réjean_Thomas/Réjean_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9jean_Thomas</t>
+          <t>Réjean_Thomas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Réjean Thomas, C.M., C.Q., O.N.-B, MD, LMCC, DHC,  né à Tracadie au Nouveau-Brunswick en 1955, est un médecin canadien. Il est surtout connu pour son engagement envers les personnes atteintes du SIDA. Il est le fondateur de Médecins du monde Canada, dont il a été président, et fondateur de la clinique médicale L'Actuel à Montréal qui est un Centre de santé sexuelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9jean_Thomas</t>
+          <t>Réjean_Thomas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études à l’université de Moncton où il obtient un diplôme en sciences de la santé (1974). Il poursuit ensuite ses études à l’Université Laval à Québec, où il poursuit un baccalauréat en sciences de la santé jusqu'en 1977, puis un doctorat en médecine en 1978. En 1979, il reçoit sa licence de la Corporation professionnelle des médecins du Québec. En 1993, il complète un certificat en philosophie de l’Université de Montréal.
 Il pratique la médecine à Rimouski et à Montréal de 1979 à 1984. En collaboration avec trois autres médecins il fonde en 1984 la clinique L'Annexe qui va devenir en 1987 L’actuel. En 2017, ce centre jouit d'une renommée internationale pour la détection des infections sexuellement transmissibles (abrégé au Québec par ITSS : infections transmissibles sexuellement et par le sang). Spécialisée dans les tests de dépistage, cette clinique regroupe 23 médecins et une quinzaine d'employé(e)s. Le Dr Réjean Thomas en est le président et pratique aussi des consultations en tant que médecin clinicien. Après avoir été défait aux élections en 1994 comme candidat du Parti québécois, il est nommé conseiller spécial à l’action humanitaire internationale du Québec, le 20 octobre 1994. Par la suite, il est régulièrement sollicité par les principaux partis politiques au Québec, mais il ne s'engagera plus en politique active. Par exemple, lors des élections générales du Québec en 2007, il a été invité à se présenter comme candidat du Parti québécois par son chef André Boisclair. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9jean_Thomas</t>
+          <t>Réjean_Thomas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Prix et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1992 - Prix Hommage et Reconnaissance des médecins de cœur et d’action.
 1993 - Tahani Rached rendra hommage au docteur Thomas ainsi qu'aux autres fondateurs de l’Actuel en réalisant le film Médecins de cœur.
@@ -564,7 +580,7 @@
 2008 - En reconnaissance de la contribution au succès économique de la province du Nouveau-Brunswick, le gouvernement de cette province a octroyé au Dr Réjean Thomas le titre officiel « d'ambassadeur du Nouveau-Brunswick ».
 2009 - Ordre du Mérite des diplômés et diplômées de l'Université de Moncton décerné par l'Association des anciens, anciennes et amis de l'Université de Moncton (l'AAAUM).
 2009 -  Le Dr Réjean Thomas a été nommé membre de l'Ordre du Canada, pour son dévouement et ses actions visant la prévention et le traitement des infections transmises sexuellement et du VIH-Sida.
-2014 -  Doctorat honoris causa remis le 14 mai par l'Université de Montréal[1].
+2014 -  Doctorat honoris causa remis le 14 mai par l'Université de Montréal.
 2015 - Membre de l'Ordre du Nouveau-Brunswick pour sa contribution exceptionnelle en tant que médecin, missionnaire, humanitaire et militant depuis près de trois décennies, notamment pour son soutien aux personnes ayant contracté des infections transmissibles sexuellement et pour le traitement de celles-ci.</t>
         </is>
       </c>
